--- a/Planillas/planilla varios primera version.xlsx
+++ b/Planillas/planilla varios primera version.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$H$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$H$43</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>GTX 20W-50 X 4L</t>
   </si>
@@ -127,21 +127,6 @@
   </si>
   <si>
     <t>PROMOCION AXION</t>
-  </si>
-  <si>
-    <t>PALETA</t>
-  </si>
-  <si>
-    <t>TEJO</t>
-  </si>
-  <si>
-    <t>FRISBEES</t>
-  </si>
-  <si>
-    <t>MAZO</t>
-  </si>
-  <si>
-    <t>CARTAS UNO</t>
   </si>
   <si>
     <t>LIMPIA PARABRISAS</t>
@@ -214,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -421,11 +406,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -441,11 +439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -455,6 +449,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -774,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -808,38 +811,38 @@
     </row>
     <row r="3" spans="1:9" ht="32.1" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
@@ -917,7 +920,7 @@
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1001,7 +1004,7 @@
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1178,10 +1181,10 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1">
+    <row r="33" spans="1:9" ht="30" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1190,7 +1193,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1">
+    <row r="34" spans="1:9" ht="30" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
         <v>26</v>
@@ -1202,7 +1205,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1">
+    <row r="35" spans="1:9" ht="30" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>27</v>
@@ -1214,7 +1217,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1">
+    <row r="36" spans="1:9" ht="30" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>30</v>
@@ -1226,7 +1229,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1">
+    <row r="37" spans="1:9" ht="30" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
         <v>28</v>
@@ -1238,7 +1241,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1">
+    <row r="38" spans="1:9" ht="30" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
         <v>29</v>
@@ -1250,7 +1253,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1">
+    <row r="39" spans="1:9" ht="30" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="7" t="s">
         <v>31</v>
@@ -1262,7 +1265,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1">
+    <row r="40" spans="1:9" ht="30" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
         <v>32</v>
@@ -1274,7 +1277,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1">
+    <row r="41" spans="1:9" ht="30" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
         <v>33</v>
@@ -1286,96 +1289,43 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1">
+    <row r="42" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" ht="30" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" customHeight="1" thickBot="1">
+      <c r="A43" s="23"/>
+      <c r="B43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1">
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1">
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" ht="30" customHeight="1" thickBot="1">
+    </row>
+    <row r="47" spans="1:9" ht="30" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="2:8" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-    </row>
+    </row>
+    <row r="48" spans="1:9" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:H3"/>
